--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1272,7 +1272,7 @@
         <v>1.39</v>
       </c>
       <c r="H11">
-        <v>0.843529411764706</v>
+        <v>0.84</v>
       </c>
       <c r="I11">
         <v>3.45</v>
@@ -1346,7 +1346,7 @@
         <v>1.54</v>
       </c>
       <c r="H12">
-        <v>0.843529411764706</v>
+        <v>0.84</v>
       </c>
       <c r="I12">
         <v>4.91</v>
@@ -1420,7 +1420,7 @@
         <v>1.67</v>
       </c>
       <c r="H13">
-        <v>0.843529411764706</v>
+        <v>0.84</v>
       </c>
       <c r="I13">
         <v>4.16</v>
@@ -1536,10 +1536,10 @@
         <v>19.59</v>
       </c>
       <c r="V14">
-        <v>0.6094117647058824</v>
+        <v>0.61</v>
       </c>
       <c r="W14">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X14">
         <v>14</v>
@@ -1610,10 +1610,10 @@
         <v>22.5</v>
       </c>
       <c r="V15">
-        <v>0.6094117647058824</v>
+        <v>0.61</v>
       </c>
       <c r="W15">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X15">
         <v>15</v>
@@ -1684,10 +1684,10 @@
         <v>20.44</v>
       </c>
       <c r="V16">
-        <v>0.6094117647058824</v>
+        <v>0.61</v>
       </c>
       <c r="W16">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X16">
         <v>15</v>
@@ -1761,7 +1761,7 @@
         <v>0.72</v>
       </c>
       <c r="W17">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X17">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>0.48</v>
       </c>
       <c r="W18">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X18">
         <v>14</v>
@@ -1909,7 +1909,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="W19">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X19">
         <v>20</v>
@@ -1983,7 +1983,7 @@
         <v>0.8</v>
       </c>
       <c r="W20">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X20">
         <v>20</v>
@@ -2057,7 +2057,7 @@
         <v>0.8</v>
       </c>
       <c r="W21">
-        <v>0.09916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="X21">
         <v>17</v>
